--- a/Sufficient data WITH_PO/B08R5736B3_Optuna_PO_Forecast.xlsx
+++ b/Sufficient data WITH_PO/B08R5736B3_Optuna_PO_Forecast.xlsx
@@ -454,7 +454,7 @@
         <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>370</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>370</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>371</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>44955.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>371</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>44969.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>373</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>44983.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>374</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>44990.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>375</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>44997.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>375</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45004.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>376</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45011.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>377</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45018.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>377</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45025.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>378</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45039.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>379</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45046.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>380</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45053.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>381</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45060.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>381</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45067.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>382</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45081.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>383</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>384</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45095.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>385</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45102.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>385</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45109.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>386</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45116.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>387</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>387</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45130.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>388</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45137.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>388</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45151.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>390</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45165.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>391</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45172.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>392</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45179.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>392</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>45186.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>393</v>
+        <v>438</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>45193.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>394</v>
+        <v>437</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>45200.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>394</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>396</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>396</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>45228.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>397</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>45235.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>398</v>
+        <v>433</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>45249.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>399</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>45256.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>400</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>45263.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>45298.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>404</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>45305.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>404</v>
+        <v>426</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>45312.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>405</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>45333.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>407</v>
+        <v>423</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>45347.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>408</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +838,7 @@
         <v>45396.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>45424.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>45438.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>45459.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>45466.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>421</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57">
@@ -894,7 +894,7 @@
         <v>45494.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="58">
@@ -902,7 +902,7 @@
         <v>45501.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +918,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>425</v>
+        <v>404</v>
       </c>
     </row>
     <row r="61">
@@ -926,7 +926,7 @@
         <v>45543.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>426</v>
+        <v>402</v>
       </c>
     </row>
     <row r="62">
@@ -934,7 +934,7 @@
         <v>45557.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>428</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63">
@@ -942,7 +942,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>428</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +950,7 @@
         <v>45571.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>429</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>430</v>
+        <v>399</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>45585.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>430</v>
+        <v>398</v>
       </c>
     </row>
     <row r="67">
@@ -974,7 +974,7 @@
         <v>45613.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>433</v>
+        <v>395</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>45697.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>441</v>
+        <v>387</v>
       </c>
     </row>
     <row r="69">
@@ -990,7 +990,7 @@
         <v>45704.99999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>441</v>
+        <v>386</v>
       </c>
     </row>
     <row r="70">
@@ -998,7 +998,7 @@
         <v>45711.99999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>442</v>
+        <v>386</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>45718.99999999999</v>
       </c>
       <c r="B71" t="n">
-        <v>443</v>
+        <v>385</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>45725.99999999999</v>
       </c>
       <c r="B72" t="n">
-        <v>443</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73">
@@ -1022,7 +1022,7 @@
         <v>45732.99999999999</v>
       </c>
       <c r="B73" t="n">
-        <v>444</v>
+        <v>383</v>
       </c>
     </row>
     <row r="74">
@@ -1030,7 +1030,7 @@
         <v>45739.99999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>445</v>
+        <v>383</v>
       </c>
     </row>
     <row r="75">
@@ -1038,7 +1038,7 @@
         <v>45746.99999999999</v>
       </c>
       <c r="B75" t="n">
-        <v>445</v>
+        <v>382</v>
       </c>
     </row>
     <row r="76">
@@ -1046,7 +1046,7 @@
         <v>45753.99999999999</v>
       </c>
       <c r="B76" t="n">
-        <v>446</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77">
@@ -1054,7 +1054,7 @@
         <v>45760.99999999999</v>
       </c>
       <c r="B77" t="n">
-        <v>447</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
